--- a/umit_files/umit_lit.xlsx
+++ b/umit_files/umit_lit.xlsx
@@ -21,10 +21,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,11 +262,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1yVTR7m9RYnbNoLuWkgqR0uLkX0FrxKVcD8BrevGkb40/edit?usp=sharing"",""УМИТЫ!A:Z"")")," Теория литературы")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1V2rhjSUdPXwCgr9M_hZvw2GYSkKGpTHKA3wILqMZGqw/edit"",""УМИТЫ!A:Z"")")," Теория литературы")</f>
         <v> Теория литературы</v>
       </c>
       <c r="B1" s="1"/>

--- a/umit_files/umit_lit.xlsx
+++ b/umit_files/umit_lit.xlsx
@@ -7096,8 +7096,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1066.0)</f>
         <v>1066</v>
       </c>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
+      <c r="W67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А.")</f>
+        <v>Бродский И.А.</v>
+      </c>
+      <c r="X67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1166.0)</f>
+        <v>1166</v>
+      </c>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
@@ -7356,8 +7362,14 @@
       </c>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
+      <c r="U70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сюжет “Тихий Дон”")</f>
+        <v>Сюжет “Тихий Дон”</v>
+      </c>
+      <c r="V70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1069.0)</f>
+        <v>1069</v>
+      </c>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
@@ -7440,8 +7452,14 @@
       </c>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
+      <c r="U71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мысль семейная в “Тихом Доне”")</f>
+        <v>Мысль семейная в “Тихом Доне”</v>
+      </c>
+      <c r="V71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1070.0)</f>
+        <v>1070</v>
+      </c>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
@@ -7524,8 +7542,14 @@
       </c>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
+      <c r="U72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Художественные приемы в “Тихом Доне”")</f>
+        <v>Художественные приемы в “Тихом Доне”</v>
+      </c>
+      <c r="V72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1071.0)</f>
+        <v>1071</v>
+      </c>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
@@ -7606,8 +7630,14 @@
       </c>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
+      <c r="U73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Система образов “Тихий Дон”")</f>
+        <v>Система образов “Тихий Дон”</v>
+      </c>
+      <c r="V73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1072.0)</f>
+        <v>1072</v>
+      </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
@@ -7688,8 +7718,14 @@
       </c>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
+      <c r="U74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Григорий Мелехов")</f>
+        <v>Григорий Мелехов</v>
+      </c>
+      <c r="V74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1073.0)</f>
+        <v>1073</v>
+      </c>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
@@ -7770,8 +7806,14 @@
       </c>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
+      <c r="U75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Аксинья Астахова")</f>
+        <v>Аксинья Астахова</v>
+      </c>
+      <c r="V75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1074.0)</f>
+        <v>1074</v>
+      </c>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
@@ -7852,8 +7894,14 @@
       </c>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
+      <c r="U76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наталья Мелехова")</f>
+        <v>Наталья Мелехова</v>
+      </c>
+      <c r="V76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1075.0)</f>
+        <v>1075</v>
+      </c>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
@@ -7934,8 +7982,14 @@
       </c>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
+      <c r="U77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Степан Астахов")</f>
+        <v>Степан Астахов</v>
+      </c>
+      <c r="V77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1076.0)</f>
+        <v>1076</v>
+      </c>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
@@ -8016,8 +8070,14 @@
       </c>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
+      <c r="U78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пантелей Мелехов")</f>
+        <v>Пантелей Мелехов</v>
+      </c>
+      <c r="V78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1077.0)</f>
+        <v>1077</v>
+      </c>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
@@ -8098,8 +8158,14 @@
       </c>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
+      <c r="U79" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Петро Мелехов")</f>
+        <v>Петро Мелехов</v>
+      </c>
+      <c r="V79" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1078.0)</f>
+        <v>1078</v>
+      </c>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
@@ -8182,8 +8248,14 @@
       </c>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
+      <c r="U80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дарья Мелехова")</f>
+        <v>Дарья Мелехова</v>
+      </c>
+      <c r="V80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1079.0)</f>
+        <v>1079</v>
+      </c>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
@@ -8222,8 +8294,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
         <v>380</v>
       </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="I81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"И.С. Тургенев “Отцы и дети”: особенности произведения")</f>
+        <v>И.С. Тургенев “Отцы и дети”: особенности произведения</v>
+      </c>
+      <c r="J81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),480.0)</f>
+        <v>480</v>
+      </c>
       <c r="K81" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сюжет и композиция ""Дикий помещик""")</f>
         <v>Сюжет и композиция "Дикий помещик"</v>
@@ -8258,8 +8336,14 @@
       </c>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
+      <c r="U81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дуняша Мелехова")</f>
+        <v>Дуняша Мелехова</v>
+      </c>
+      <c r="V81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1080.0)</f>
+        <v>1080</v>
+      </c>
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
@@ -8298,8 +8382,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),381.0)</f>
         <v>381</v>
       </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+      <c r="I82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы, идеи “Отцы и дети”")</f>
+        <v>Темы, идеи “Отцы и дети”</v>
+      </c>
+      <c r="J82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),481.0)</f>
+        <v>481</v>
+      </c>
       <c r="K82" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ помещика ""Дикий помещик""")</f>
         <v>Образ помещика "Дикий помещик"</v>
@@ -8336,8 +8426,14 @@
       </c>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
+      <c r="U82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Василиса Ильинична Мелехова")</f>
+        <v>Василиса Ильинична Мелехова</v>
+      </c>
+      <c r="V82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1081.0)</f>
+        <v>1081</v>
+      </c>
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
@@ -8376,8 +8472,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),382.0)</f>
         <v>382</v>
       </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="I83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сюжет и композиция «Отцы и дети»")</f>
+        <v>Сюжет и композиция «Отцы и дети»</v>
+      </c>
+      <c r="J83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),482.0)</f>
+        <v>482</v>
+      </c>
       <c r="K83" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"М.Е. Салтыкова-Щедрин, ""Премудрый пискарь"": смысл названия")</f>
         <v>М.Е. Салтыкова-Щедрин, "Премудрый пискарь": смысл названия</v>
@@ -8414,8 +8516,14 @@
       </c>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
+      <c r="U83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Исторические личности “Тихий Дон”")</f>
+        <v>Исторические личности “Тихий Дон”</v>
+      </c>
+      <c r="V83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1082.0)</f>
+        <v>1082</v>
+      </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
@@ -8454,8 +8562,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
         <v>383</v>
       </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="I84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Конфликт «Отцы и дети»")</f>
+        <v>Конфликт «Отцы и дети»</v>
+      </c>
+      <c r="J84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),483.0)</f>
+        <v>483</v>
+      </c>
       <c r="K84" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тема ""Премудрый пискарь""")</f>
         <v>Тема "Премудрый пискарь"</v>
@@ -8490,8 +8604,14 @@
       </c>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
+      <c r="U84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Война в “Тихом Доне”")</f>
+        <v>Война в “Тихом Доне”</v>
+      </c>
+      <c r="V84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1083.0)</f>
+        <v>1083</v>
+      </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
@@ -8530,8 +8650,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
         <v>384</v>
       </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="I85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Система образов “Отцы и дети”")</f>
+        <v>Система образов “Отцы и дети”</v>
+      </c>
+      <c r="J85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),484.0)</f>
+        <v>484</v>
+      </c>
       <c r="K85" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идея ""Премудрый пискарь""")</f>
         <v>Идея "Премудрый пискарь"</v>
@@ -8568,8 +8694,14 @@
       </c>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
+      <c r="U85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Михаил Кошевой")</f>
+        <v>Михаил Кошевой</v>
+      </c>
+      <c r="V85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1084.0)</f>
+        <v>1084</v>
+      </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
@@ -8608,8 +8740,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
         <v>385</v>
       </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="I86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Евгений Базаров")</f>
+        <v>Евгений Базаров</v>
+      </c>
+      <c r="J86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),485.0)</f>
+        <v>485</v>
+      </c>
       <c r="K86" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сюжет и композиция ""Премудрый пискарь""")</f>
         <v>Сюжет и композиция "Премудрый пискарь"</v>
@@ -8644,8 +8782,14 @@
       </c>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
+      <c r="U86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Митька Коршунов")</f>
+        <v>Митька Коршунов</v>
+      </c>
+      <c r="V86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1085.0)</f>
+        <v>1085</v>
+      </c>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
@@ -8710,12 +8854,24 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),786.0)</f>
         <v>786</v>
       </c>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
+      <c r="Q87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Незнакомка»: анализ произведения")</f>
+        <v>«Незнакомка»: анализ произведения</v>
+      </c>
+      <c r="R87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),886.0)</f>
+        <v>886</v>
+      </c>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
+      <c r="U87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Семья купцов Моховых")</f>
+        <v>Семья купцов Моховых</v>
+      </c>
+      <c r="V87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1086.0)</f>
+        <v>1086</v>
+      </c>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
@@ -8772,14 +8928,32 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),687.0)</f>
         <v>687</v>
       </c>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
+      <c r="O88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вишневый сад”: особенности конфликта")</f>
+        <v>Вишневый сад”: особенности конфликта</v>
+      </c>
+      <c r="P88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),787.0)</f>
+        <v>787</v>
+      </c>
+      <c r="Q88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"А.А. Блок «Россия»: анализ произведения")</f>
+        <v>А.А. Блок «Россия»: анализ произведения</v>
+      </c>
+      <c r="R88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),887.0)</f>
+        <v>887</v>
+      </c>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
+      <c r="U88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"М.А. Булгаков «Белая гвардия»: особенности произведения")</f>
+        <v>М.А. Булгаков «Белая гвардия»: особенности произведения</v>
+      </c>
+      <c r="V88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1087.0)</f>
+        <v>1087</v>
+      </c>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
@@ -8836,14 +9010,32 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),688.0)</f>
         <v>688</v>
       </c>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
+      <c r="O89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
+        <v>Бальмонт К.Д.</v>
+      </c>
+      <c r="P89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),788.0)</f>
+        <v>788</v>
+      </c>
+      <c r="Q89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Ночь, улица, фонарь, аптека…»: анализ произведения")</f>
+        <v>«Ночь, улица, фонарь, аптека…»: анализ произведения</v>
+      </c>
+      <c r="R89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),888.0)</f>
+        <v>888</v>
+      </c>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
+      <c r="U89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Белая гвардия»: тема, идея")</f>
+        <v>«Белая гвардия»: тема, идея</v>
+      </c>
+      <c r="V89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1088.0)</f>
+        <v>1088</v>
+      </c>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
@@ -8900,14 +9092,32 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),689.0)</f>
         <v>689</v>
       </c>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
+      <c r="O90" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я.")</f>
+        <v>Брюсов В.Я.</v>
+      </c>
+      <c r="P90" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),789.0)</f>
+        <v>789</v>
+      </c>
+      <c r="Q90" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«В ресторане»: анализ произведения")</f>
+        <v>«В ресторане»: анализ произведения</v>
+      </c>
+      <c r="R90" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),889.0)</f>
+        <v>889</v>
+      </c>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
+      <c r="U90" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Белая гвардия»: проблематика")</f>
+        <v>«Белая гвардия»: проблематика</v>
+      </c>
+      <c r="V90" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1089.0)</f>
+        <v>1089</v>
+      </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
@@ -8964,14 +9174,32 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),690.0)</f>
         <v>690</v>
       </c>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
+      <c r="O91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
+      </c>
+      <c r="P91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),790.0)</f>
+        <v>790</v>
+      </c>
+      <c r="Q91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"В.В. Маяковский «Дешевая распродажа»")</f>
+        <v>В.В. Маяковский «Дешевая распродажа»</v>
+      </c>
+      <c r="R91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),890.0)</f>
+        <v>890</v>
+      </c>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
+      <c r="U91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Белая гвардия»: конфликт")</f>
+        <v>«Белая гвардия»: конфликт</v>
+      </c>
+      <c r="V91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1090.0)</f>
+        <v>1090</v>
+      </c>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
@@ -9020,16 +9248,40 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),591.0)</f>
         <v>591</v>
       </c>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
+      <c r="M92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Н.С. Лесков “Леди Макбет Мценского уезда”")</f>
+        <v>Н.С. Лесков “Леди Макбет Мценского уезда”</v>
+      </c>
+      <c r="N92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),691.0)</f>
+        <v>691</v>
+      </c>
+      <c r="O92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
+      </c>
+      <c r="P92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),791.0)</f>
+        <v>791</v>
+      </c>
+      <c r="Q92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"В.В. Маяковский  «Письмо Татьяне Яковлевой»")</f>
+        <v>В.В. Маяковский  «Письмо Татьяне Яковлевой»</v>
+      </c>
+      <c r="R92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),891.0)</f>
+        <v>891</v>
+      </c>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
+      <c r="U92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Белая гвардия»: композиция")</f>
+        <v>«Белая гвардия»: композиция</v>
+      </c>
+      <c r="V92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1091.0)</f>
+        <v>1091</v>
+      </c>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
@@ -9086,8 +9338,14 @@
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
+      <c r="U93" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Белая гвардия»: история создания")</f>
+        <v>«Белая гвардия»: история создания</v>
+      </c>
+      <c r="V93" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1092.0)</f>
+        <v>1092</v>
+      </c>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
@@ -9138,8 +9396,14 @@
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
+      <c r="U94" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Белая гвардия»: сюжет")</f>
+        <v>«Белая гвардия»: сюжет</v>
+      </c>
+      <c r="V94" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1093.0)</f>
+        <v>1093</v>
+      </c>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
@@ -9190,8 +9454,14 @@
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
+      <c r="U95" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Белая гвардия»: смысл эпиграфа")</f>
+        <v>«Белая гвардия»: смысл эпиграфа</v>
+      </c>
+      <c r="V95" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1094.0)</f>
+        <v>1094</v>
+      </c>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
@@ -9242,8 +9512,14 @@
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
+      <c r="U96" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Алексей Васильевич Турбин")</f>
+        <v>Алексей Васильевич Турбин</v>
+      </c>
+      <c r="V96" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1095.0)</f>
+        <v>1095</v>
+      </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
@@ -9288,8 +9564,14 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
+      <c r="U97" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай Васильевич Турбин (Николка)")</f>
+        <v>Николай Васильевич Турбин (Николка)</v>
+      </c>
+      <c r="V97" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1096.0)</f>
+        <v>1096</v>
+      </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
@@ -9322,8 +9604,14 @@
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
+      <c r="U98" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Елена Васильевна Турбина-Тальберг")</f>
+        <v>Елена Васильевна Турбина-Тальберг</v>
+      </c>
+      <c r="V98" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1097.0)</f>
+        <v>1097</v>
+      </c>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
@@ -9356,8 +9644,14 @@
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
+      <c r="U99" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виктор Викторович Мышлаевский")</f>
+        <v>Виктор Викторович Мышлаевский</v>
+      </c>
+      <c r="V99" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1098.0)</f>
+        <v>1098</v>
+      </c>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
@@ -9390,16 +9684,28 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
+      <c r="U100" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Биография Б.Л. Пастернака")</f>
+        <v>Биография Б.Л. Пастернака</v>
+      </c>
+      <c r="V100" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1099.0)</f>
+        <v>1099</v>
+      </c>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
     <row r="101">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="A101" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Риторический вопрос")</f>
+        <v>Риторический вопрос</v>
+      </c>
+      <c r="B101" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1301.0)</f>
+        <v>1301</v>
+      </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -9418,16 +9724,28 @@
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
+      <c r="U101" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"“Февраль. Достать чернил и плакать!..”: анализ произведения")</f>
+        <v>“Февраль. Достать чернил и плакать!..”: анализ произведения</v>
+      </c>
+      <c r="V101" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1410.0)</f>
+        <v>1410</v>
+      </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
     <row r="102">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="A102" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Риторическое восклицание")</f>
+        <v>Риторическое восклицание</v>
+      </c>
+      <c r="B102" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1302.0)</f>
+        <v>1302</v>
+      </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -9446,16 +9764,28 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
+      <c r="U102" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"“Снег идет…”: анализ произведения")</f>
+        <v>“Снег идет…”: анализ произведения</v>
+      </c>
+      <c r="V102" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1411.0)</f>
+        <v>1411</v>
+      </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
     <row r="103">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="A103" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Деталь")</f>
+        <v>Деталь</v>
+      </c>
+      <c r="B103" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1303.0)</f>
+        <v>1303</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -9474,16 +9804,28 @@
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
+      <c r="U103" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Определение поэзии»: анализ произведения")</f>
+        <v>«Определение поэзии»: анализ произведения</v>
+      </c>
+      <c r="V103" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1412.0)</f>
+        <v>1412</v>
+      </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
     <row r="104">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Символ")</f>
+        <v>Символ</v>
+      </c>
+      <c r="B104" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1304.0)</f>
+        <v>1304</v>
+      </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -9502,16 +9844,28 @@
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
+      <c r="U104" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Во всем мне хочется дойти…»: анализ произведения")</f>
+        <v>«Во всем мне хочется дойти…»: анализ произведения</v>
+      </c>
+      <c r="V104" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1413.0)</f>
+        <v>1413</v>
+      </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
     <row r="105">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="A105" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Подтекст")</f>
+        <v>Подтекст</v>
+      </c>
+      <c r="B105" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1305.0)</f>
+        <v>1305</v>
+      </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -9530,16 +9884,28 @@
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
+      <c r="U105" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Гамлет»: анализ произведения")</f>
+        <v>«Гамлет»: анализ произведения</v>
+      </c>
+      <c r="V105" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1414.0)</f>
+        <v>1414</v>
+      </c>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
     <row r="106">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="A106" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Историзм")</f>
+        <v>Историзм</v>
+      </c>
+      <c r="B106" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1306.0)</f>
+        <v>1306</v>
+      </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -9558,16 +9924,28 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
+      <c r="U106" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Зимняя ночь» («Мело, мело по всей земле…»): анализ произведения")</f>
+        <v>«Зимняя ночь» («Мело, мело по всей земле…»): анализ произведения</v>
+      </c>
+      <c r="V106" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1415.0)</f>
+        <v>1415</v>
+      </c>
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
     <row r="107">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="A107" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Народность")</f>
+        <v>Народность</v>
+      </c>
+      <c r="B107" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1307.0)</f>
+        <v>1307</v>
+      </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -9586,16 +9964,28 @@
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
+      <c r="U107" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Платонов А.П. “Юшка”: особенности произведения")</f>
+        <v>Платонов А.П. “Юшка”: особенности произведения</v>
+      </c>
+      <c r="V107" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1416.0)</f>
+        <v>1416</v>
+      </c>
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
     <row r="108">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="A108" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Психологизм")</f>
+        <v>Психологизм</v>
+      </c>
+      <c r="B108" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1308.0)</f>
+        <v>1308</v>
+      </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -9614,16 +10004,28 @@
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
+      <c r="U108" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"“Юшка”: темы, идеи")</f>
+        <v>“Юшка”: темы, идеи</v>
+      </c>
+      <c r="V108" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1417.0)</f>
+        <v>1417</v>
+      </c>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
     <row r="109">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="A109" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литературная критика по произведениям")</f>
+        <v>Литературная критика по произведениям</v>
+      </c>
+      <c r="B109" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1309.0)</f>
+        <v>1309</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -9642,8 +10044,14 @@
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
+      <c r="U109" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ Юшки")</f>
+        <v>Образ Юшки</v>
+      </c>
+      <c r="V109" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1418.0)</f>
+        <v>1418</v>
+      </c>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>

--- a/umit_files/umit_lit.xlsx
+++ b/umit_files/umit_lit.xlsx
@@ -4049,8 +4049,8 @@
         <v>636</v>
       </c>
       <c r="O37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д. – «Безглагольность»,")</f>
-        <v>Бальмонт К.Д. – «Безглагольность»,</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
+        <v>Бальмонт К.Д.</v>
       </c>
       <c r="P37" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),736.0)</f>
@@ -4151,10 +4151,8 @@
         <v>637</v>
       </c>
       <c r="O38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д. – «Будем как
-солнце, Забудем о том...»")</f>
-        <v>Бальмонт К.Д. – «Будем как
-солнце, Забудем о том...»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
+        <v>Бальмонт К.Д.</v>
       </c>
       <c r="P38" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),737.0)</f>
@@ -4253,8 +4251,8 @@
         <v>638</v>
       </c>
       <c r="O39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д. – «Камыши»")</f>
-        <v>Бальмонт К.Д. – «Камыши»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
+        <v>Бальмонт К.Д.</v>
       </c>
       <c r="P39" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),738.0)</f>
@@ -4355,8 +4353,8 @@
         <v>639</v>
       </c>
       <c r="O40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д. – «Слова-хамелеоны»")</f>
-        <v>Бальмонт К.Д. – «Слова-хамелеоны»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
+        <v>Бальмонт К.Д.</v>
       </c>
       <c r="P40" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),739.0)</f>
@@ -4457,8 +4455,8 @@
         <v>640</v>
       </c>
       <c r="O41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д. – «Чёлн томленья»")</f>
-        <v>Бальмонт К.Д. – «Чёлн томленья»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
+        <v>Бальмонт К.Д.</v>
       </c>
       <c r="P41" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),740.0)</f>
@@ -4557,8 +4555,8 @@
         <v>641</v>
       </c>
       <c r="O42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д. – «Я мечтою ловил уходящие тени…», ")</f>
-        <v>Бальмонт К.Д. – «Я мечтою ловил уходящие тени…», </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
+        <v>Бальмонт К.Д.</v>
       </c>
       <c r="P42" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),741.0)</f>
@@ -4659,8 +4657,8 @@
         <v>642</v>
       </c>
       <c r="O43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д. – «Я – изысканность русской медлительной речи...»")</f>
-        <v>Бальмонт К.Д. – «Я – изысканность русской медлительной речи...»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
+        <v>Бальмонт К.Д.</v>
       </c>
       <c r="P43" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),742.0)</f>
@@ -6367,10 +6365,8 @@
         <v>659</v>
       </c>
       <c r="O60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Андрей Рублёв»
-")</f>
-        <v>Гумилёв Н.С. – «Андрей Рублёв»
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. ")</f>
+        <v>Гумилёв Н.С. </v>
       </c>
       <c r="P60" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),759.0)</f>
@@ -6469,8 +6465,8 @@
         <v>660</v>
       </c>
       <c r="O61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Жираф» ")</f>
-        <v>Гумилёв Н.С. – «Жираф» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P61" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),760.0)</f>
@@ -6569,8 +6565,8 @@
         <v>661</v>
       </c>
       <c r="O62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Заблудившийся трамвай» ")</f>
-        <v>Гумилёв Н.С. – «Заблудившийся трамвай» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P62" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),761.0)</f>
@@ -6669,8 +6665,8 @@
         <v>662</v>
       </c>
       <c r="O63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Из логова змиева» ")</f>
-        <v>Гумилёв Н.С. – «Из логова змиева» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P63" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),762.0)</f>
@@ -6769,8 +6765,8 @@
         <v>663</v>
       </c>
       <c r="O64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Капитаны» ")</f>
-        <v>Гумилёв Н.С. – «Капитаны» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. ")</f>
+        <v>Гумилёв Н.С. </v>
       </c>
       <c r="P64" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),763.0)</f>
@@ -6869,8 +6865,8 @@
         <v>664</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Мои читатели» ")</f>
-        <v>Гумилёв Н.С. – «Мои читатели» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. ")</f>
+        <v>Гумилёв Н.С. </v>
       </c>
       <c r="P65" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),764.0)</f>
@@ -6969,10 +6965,8 @@
         <v>665</v>
       </c>
       <c r="O66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Носорог» 
-")</f>
-        <v>Гумилёв Н.С. – «Носорог» 
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P66" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),765.0)</f>
@@ -7071,8 +7065,8 @@
         <v>666</v>
       </c>
       <c r="O67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Пьяный дервиш» ")</f>
-        <v>Гумилёв Н.С. – «Пьяный дервиш» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P67" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),766.0)</f>
@@ -7165,8 +7159,8 @@
         <v>667</v>
       </c>
       <c r="O68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Пятистопные ямбы» ")</f>
-        <v>Гумилёв Н.С. – «Пятистопные ямбы» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P68" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),767.0)</f>
@@ -7253,10 +7247,8 @@
         <v>668</v>
       </c>
       <c r="O69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Слово» 
-")</f>
-        <v>Гумилёв Н.С. – «Слово» 
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P69" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),768.0)</f>
@@ -7343,10 +7335,8 @@
         <v>669</v>
       </c>
       <c r="O70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Слонёнок»
-")</f>
-        <v>Гумилёв Н.С. – «Слонёнок»
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P70" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),769.0)</f>
@@ -7433,10 +7423,8 @@
         <v>670</v>
       </c>
       <c r="O71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «У камина» 
-")</f>
-        <v>Гумилёв Н.С. – «У камина» 
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P71" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),770.0)</f>
@@ -7523,10 +7511,8 @@
         <v>671</v>
       </c>
       <c r="O72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Шестое чувство» 
-")</f>
-        <v>Гумилёв Н.С. – «Шестое чувство» 
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P72" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),771.0)</f>
@@ -7613,8 +7599,8 @@
         <v>672</v>
       </c>
       <c r="O73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. – «Я и вы»")</f>
-        <v>Гумилёв Н.С. – «Я и вы»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P73" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),772.0)</f>
@@ -7965,8 +7951,8 @@
         <v>676</v>
       </c>
       <c r="O77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. – «Бобэоби пелись губы…»")</f>
-        <v>Хлебников В.В. – «Бобэоби пелись губы…»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
       </c>
       <c r="P77" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),776.0)</f>
@@ -8053,8 +8039,8 @@
         <v>677</v>
       </c>
       <c r="O78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. – «Заклятие смехом» ")</f>
-        <v>Хлебников В.В. – «Заклятие смехом» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
       </c>
       <c r="P78" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),777.0)</f>
@@ -8141,8 +8127,8 @@
         <v>678</v>
       </c>
       <c r="O79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. – «Когда умирают кони – дышат…» ")</f>
-        <v>Хлебников В.В. – «Когда умирают кони – дышат…» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
       </c>
       <c r="P79" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),778.0)</f>
@@ -8229,10 +8215,8 @@
         <v>679</v>
       </c>
       <c r="O80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. – «Кузнечик» 
-")</f>
-        <v>Хлебников В.В. – «Кузнечик» 
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
       </c>
       <c r="P80" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),779.0)</f>
@@ -8319,8 +8303,8 @@
         <v>680</v>
       </c>
       <c r="O81" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. – «Мне мало надо» ")</f>
-        <v>Хлебников В.В. – «Мне мало надо» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. ")</f>
+        <v>Хлебников В.В. </v>
       </c>
       <c r="P81" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),780.0)</f>
@@ -8407,10 +8391,8 @@
         <v>681</v>
       </c>
       <c r="O82" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. – «Мы желаем звёздам тыкать…» 
-")</f>
-        <v>Хлебников В.В. – «Мы желаем звёздам тыкать…» 
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
       </c>
       <c r="P82" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),781.0)</f>
@@ -8497,10 +8479,8 @@
         <v>682</v>
       </c>
       <c r="O83" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. – «О достоевскиймо бегущей тучи…»
-")</f>
-        <v>Хлебников В.В. – «О достоевскиймо бегущей тучи…»
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
       </c>
       <c r="P83" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),782.0)</f>
@@ -8587,8 +8567,8 @@
         <v>683</v>
       </c>
       <c r="O84" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. – «Сегодня снова я пойду…» ")</f>
-        <v>Хлебников В.В. – «Сегодня снова я пойду…» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
       </c>
       <c r="P84" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),783.0)</f>
@@ -8675,10 +8655,8 @@
         <v>684</v>
       </c>
       <c r="O85" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. – «Там, где жили свиристели…» 
-")</f>
-        <v>Хлебников В.В. – «Там, где жили свиристели…» 
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
       </c>
       <c r="P85" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),784.0)</f>
@@ -8765,8 +8743,8 @@
         <v>685</v>
       </c>
       <c r="O86" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. – «Усадьба ночью, чингисхань…»")</f>
-        <v>Хлебников В.В. – «Усадьба ночью, чингисхань…»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
       </c>
       <c r="P86" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),785.0)</f>

--- a/umit_files/umit_lit.xlsx
+++ b/umit_files/umit_lit.xlsx
@@ -3567,14 +3567,12 @@
         <v>1031</v>
       </c>
       <c r="W32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «Конец прекрасной
-эпохи»")</f>
-        <v>Бродский И.А. – «Конец прекрасной
-эпохи»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вознесенский А.А.")</f>
+        <v>Вознесенский А.А.</v>
       </c>
       <c r="X32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1131.0)</f>
-        <v>1131</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1144.0)</f>
+        <v>1144</v>
       </c>
       <c r="Y32" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Г. Аполлинер")</f>
@@ -3673,12 +3671,12 @@
         <v>1032</v>
       </c>
       <c r="W33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «На смерть Жукова»")</f>
-        <v>Бродский И.А. – «На смерть Жукова»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Высоцкий В.С. ")</f>
+        <v>Высоцкий В.С. </v>
       </c>
       <c r="X33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1132.0)</f>
-        <v>1132</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1145.0)</f>
+        <v>1145</v>
       </c>
       <c r="Y33" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Д.Г. Байрон")</f>
@@ -3773,14 +3771,12 @@
         <v>1033</v>
       </c>
       <c r="W34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «На столетие Анны
- Ахматовой»")</f>
-        <v>Бродский И.А. – «На столетие Анны
- Ахматовой»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гамзатов Р. ")</f>
+        <v>Гамзатов Р. </v>
       </c>
       <c r="X34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1133.0)</f>
-        <v>1133</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1146.0)</f>
+        <v>1146</v>
       </c>
       <c r="Y34" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Р. Бёрнс*")</f>
@@ -3875,12 +3871,12 @@
         <v>1034</v>
       </c>
       <c r="W35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «Ни страны, ни погоста…»")</f>
-        <v>Бродский И.А. – «Ни страны, ни погоста…»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Евтушенко Е.А. ")</f>
+        <v>Евтушенко Е.А. </v>
       </c>
       <c r="X35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1134.0)</f>
-        <v>1134</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1147.0)</f>
+        <v>1147</v>
       </c>
       <c r="Y35" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Г. Гейне*")</f>
@@ -3975,12 +3971,12 @@
         <v>1035</v>
       </c>
       <c r="W36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «Рождественский романс»")</f>
-        <v>Бродский И.А. – «Рождественский романс»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Заболоцкий Н.А. ")</f>
+        <v>Заболоцкий Н.А. </v>
       </c>
       <c r="X36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1135.0)</f>
-        <v>1135</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1148.0)</f>
+        <v>1148</v>
       </c>
       <c r="Y36" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"У. Блейк")</f>
@@ -4049,12 +4045,12 @@
         <v>636</v>
       </c>
       <c r="O37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
-        <v>Бальмонт К.Д.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Белый А. ")</f>
+        <v>Белый А. </v>
       </c>
       <c r="P37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),736.0)</f>
-        <v>736</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),743.0)</f>
+        <v>743</v>
       </c>
       <c r="Q37" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности имажинизма")</f>
@@ -4075,14 +4071,12 @@
         <v>1036</v>
       </c>
       <c r="W37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «Я входил вместо дикого
-зверя в клетку…»")</f>
-        <v>Бродский И.А. – «Я входил вместо дикого
-зверя в клетку…»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кузнецов Ю.П.")</f>
+        <v>Кузнецов Ю.П.</v>
       </c>
       <c r="X37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1136.0)</f>
-        <v>1136</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1149.0)</f>
+        <v>1149</v>
       </c>
       <c r="Y37" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ш. Бодлер")</f>
@@ -4151,12 +4145,12 @@
         <v>637</v>
       </c>
       <c r="O38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
-        <v>Бальмонт К.Д.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Алёнушка»")</f>
+        <v>Бунин И.А. – «Алёнушка»</v>
       </c>
       <c r="P38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),737.0)</f>
-        <v>737</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),744.0)</f>
+        <v>744</v>
       </c>
       <c r="Q38" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Гой ты, Русь, моя родная"": анализ произведения")</f>
@@ -4177,12 +4171,12 @@
         <v>1037</v>
       </c>
       <c r="W38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «1 января 1965 года»")</f>
-        <v>Бродский И.А. – «1 января 1965 года»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мартынов Л.Н. ")</f>
+        <v>Мартынов Л.Н. </v>
       </c>
       <c r="X38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1137.0)</f>
-        <v>1137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
+        <v>1150</v>
       </c>
       <c r="Y38" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ф. Вийон*")</f>
@@ -4251,12 +4245,12 @@
         <v>638</v>
       </c>
       <c r="O39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
-        <v>Бальмонт К.Д.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Вечер»")</f>
+        <v>Бунин И.А. – «Вечер»</v>
       </c>
       <c r="P39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),738.0)</f>
-        <v>738</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),745.0)</f>
+        <v>745</v>
       </c>
       <c r="Q39" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Не бродить, не мять в кустах багряных..."": анализ произведения")</f>
@@ -4277,14 +4271,12 @@
         <v>1038</v>
       </c>
       <c r="W39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «В деревне
-Бог живёт не по углам…»")</f>
-        <v>Бродский И.А. – «В деревне
-Бог живёт не по углам…»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окуджава Б.Ш. ")</f>
+        <v>Окуджава Б.Ш. </v>
       </c>
       <c r="X39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1138.0)</f>
-        <v>1138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1151.0)</f>
+        <v>1151</v>
       </c>
       <c r="Y39" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"П. Верлен")</f>
@@ -4353,12 +4345,12 @@
         <v>639</v>
       </c>
       <c r="O40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
-        <v>Бальмонт К.Д.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Дурман»")</f>
+        <v>Бунин И.А. – «Дурман»</v>
       </c>
       <c r="P40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),739.0)</f>
-        <v>739</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),746.0)</f>
+        <v>746</v>
       </c>
       <c r="Q40" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Мы теперь выходим понемногу..."": анализ произведения")</f>
@@ -4379,14 +4371,12 @@
         <v>1039</v>
       </c>
       <c r="W40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «Воротишься на родину.
-Ну что ж…»")</f>
-        <v>Бродский И.А. – «Воротишься на родину.
-Ну что ж…»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рубцов Н.М. ")</f>
+        <v>Рубцов Н.М. </v>
       </c>
       <c r="X40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1139.0)</f>
-        <v>1139</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1152.0)</f>
+        <v>1152</v>
       </c>
       <c r="Y40" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Э. Верхарн")</f>
@@ -4455,12 +4445,12 @@
         <v>640</v>
       </c>
       <c r="O41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
-        <v>Бальмонт К.Д.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «И цветы, и шмели, и трава, и колосья…»")</f>
+        <v>Бунин И.А. – «И цветы, и шмели, и трава, и колосья…»</v>
       </c>
       <c r="P41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),740.0)</f>
-        <v>740</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),747.0)</f>
+        <v>747</v>
       </c>
       <c r="Q41" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Письмо матери"": анализ произведения")</f>
@@ -4481,12 +4471,12 @@
         <v>1040</v>
       </c>
       <c r="W41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «Осенний крик ястреба»")</f>
-        <v>Бродский И.А. – «Осенний крик ястреба»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Самойлов Д.С. ")</f>
+        <v>Самойлов Д.С. </v>
       </c>
       <c r="X41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1140.0)</f>
-        <v>1140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1153.0)</f>
+        <v>1153</v>
       </c>
       <c r="Y41" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Г. Гейне")</f>
@@ -4555,710 +4545,6 @@
         <v>641</v>
       </c>
       <c r="O42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
-        <v>Бальмонт К.Д.</v>
-      </c>
-      <c r="P42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),741.0)</f>
-        <v>741</v>
-      </c>
-      <c r="Q42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Спит ковыль. Равнина дорогая..."": анализ произведения")</f>
-        <v>Есенин С.А. "Спит ковыль. Равнина дорогая...": анализ произведения</v>
-      </c>
-      <c r="R42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),841.0)</f>
-        <v>841</v>
-      </c>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Твардовский А.Т. ""Памяти матери"": анализ произведения")</f>
-        <v>Твардовский А.Т. "Памяти матери": анализ произведения</v>
-      </c>
-      <c r="V42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1041.0)</f>
-        <v>1041</v>
-      </c>
-      <c r="W42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «Рождест-
-венская звезда»")</f>
-        <v>Бродский И.А. – «Рождест-
-венская звезда»</v>
-      </c>
-      <c r="X42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1141.0)</f>
-        <v>1141</v>
-      </c>
-      <c r="Y42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"А. Рембо")</f>
-        <v>А. Рембо</v>
-      </c>
-      <c r="Z42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1241.0)</f>
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лирический герой")</f>
-        <v>Лирический герой</v>
-      </c>
-      <c r="B43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ рассказчика-повествователя в повести  – ""Бедная Лиза""")</f>
-        <v>Образ рассказчика-повествователя в повести  – "Бедная Лиза"</v>
-      </c>
-      <c r="D43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
-        <v>142</v>
-      </c>
-      <c r="E43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Динамика «Выстрел»")</f>
-        <v>Динамика «Выстрел»</v>
-      </c>
-      <c r="F43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
-        <v>242</v>
-      </c>
-      <c r="G43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Конфликт «Мцыри»")</f>
-        <v>Конфликт «Мцыри»</v>
-      </c>
-      <c r="H43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),342.0)</f>
-        <v>342</v>
-      </c>
-      <c r="I43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Савел Прокофьевич Дикой")</f>
-        <v>Савел Прокофьевич Дикой</v>
-      </c>
-      <c r="J43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
-        <v>442</v>
-      </c>
-      <c r="K43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идея «Кому на Руси жить хорошо»")</f>
-        <v>Идея «Кому на Руси жить хорошо»</v>
-      </c>
-      <c r="L43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),542.0)</f>
-        <v>542</v>
-      </c>
-      <c r="M43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теория Раскольникова")</f>
-        <v>Теория Раскольникова</v>
-      </c>
-      <c r="N43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),642.0)</f>
-        <v>642</v>
-      </c>
-      <c r="O43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
-        <v>Бальмонт К.Д.</v>
-      </c>
-      <c r="P43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),742.0)</f>
-        <v>742</v>
-      </c>
-      <c r="Q43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Шаганэ ты моя, Шаганэ..."": анализ произведения")</f>
-        <v>Есенин С.А. "Шаганэ ты моя, Шаганэ...": анализ произведения</v>
-      </c>
-      <c r="R43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),842.0)</f>
-        <v>842</v>
-      </c>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Твардовский А.Т. ""Я знаю, никакой моей вины..."": анализ произведения")</f>
-        <v>Твардовский А.Т. "Я знаю, никакой моей вины...": анализ произведения</v>
-      </c>
-      <c r="V43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1042.0)</f>
-        <v>1042</v>
-      </c>
-      <c r="W43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «То не Муза воды набирает
-в рот…»")</f>
-        <v>Бродский И.А. – «То не Муза воды набирает
-в рот…»</v>
-      </c>
-      <c r="X43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1142.0)</f>
-        <v>1142</v>
-      </c>
-      <c r="Y43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Р.М. Рильке")</f>
-        <v>Р.М. Рильке</v>
-      </c>
-      <c r="Z43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1242.0)</f>
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Система персонажей")</f>
-        <v>Система персонажей</v>
-      </c>
-      <c r="B44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
-        <v>43</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тема любви и социального неравенства  – ""Бедная Лиза""")</f>
-        <v>Тема любви и социального неравенства  – "Бедная Лиза"</v>
-      </c>
-      <c r="D44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
-        <v>143</v>
-      </c>
-      <c r="E44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Критика «Выстрел»")</f>
-        <v>Критика «Выстрел»</v>
-      </c>
-      <c r="F44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),243.0)</f>
-        <v>243</v>
-      </c>
-      <c r="G44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Природа в поэме «Мцыри»")</f>
-        <v>Природа в поэме «Мцыри»</v>
-      </c>
-      <c r="H44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
-      </c>
-      <c r="I44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Борис Григорьевич")</f>
-        <v>Борис Григорьевич</v>
-      </c>
-      <c r="J44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
-        <v>443</v>
-      </c>
-      <c r="K44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проблематика «Кому на Руси жить хорошо»")</f>
-        <v>Проблематика «Кому на Руси жить хорошо»</v>
-      </c>
-      <c r="L44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),543.0)</f>
-        <v>543</v>
-      </c>
-      <c r="M44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Истоки преступления Раскольникова")</f>
-        <v>Истоки преступления Раскольникова</v>
-      </c>
-      <c r="N44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),643.0)</f>
-        <v>643</v>
-      </c>
-      <c r="O44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Белый А. ")</f>
-        <v>Белый А. </v>
-      </c>
-      <c r="P44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),743.0)</f>
-        <v>743</v>
-      </c>
-      <c r="Q44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Береза"": жанр, тема, худ. средства")</f>
-        <v>Есенин С.А. "Береза": жанр, тема, худ. средства</v>
-      </c>
-      <c r="R44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),843.0)</f>
-        <v>843</v>
-      </c>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Твардовский А.Т. ""Василий Тёркин"": особенности произведения")</f>
-        <v>Твардовский А.Т. "Василий Тёркин": особенности произведения</v>
-      </c>
-      <c r="V44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1043.0)</f>
-        <v>1043</v>
-      </c>
-      <c r="W44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А. – «Я обнял эти плечи и взглянул…»")</f>
-        <v>Бродский И.А. – «Я обнял эти плечи и взглянул…»</v>
-      </c>
-      <c r="X44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1143.0)</f>
-        <v>1143</v>
-      </c>
-      <c r="Y44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"У. Шекспир*")</f>
-        <v>У. Шекспир*</v>
-      </c>
-      <c r="Z44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1243.0)</f>
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Интерьер")</f>
-        <v>Интерьер</v>
-      </c>
-      <c r="B45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мотив белизны, чистоты и свежести  – ""Бедная Лиза""")</f>
-        <v>Мотив белизны, чистоты и свежести  – "Бедная Лиза"</v>
-      </c>
-      <c r="D45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
-      </c>
-      <c r="E45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пушкин А.С. — «Станционный смотритель»: краткие сведения")</f>
-        <v>Пушкин А.С. — «Станционный смотритель»: краткие сведения</v>
-      </c>
-      <c r="F45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),244.0)</f>
-        <v>244</v>
-      </c>
-      <c r="G45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ Мцыри")</f>
-        <v>Образ Мцыри</v>
-      </c>
-      <c r="H45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),344.0)</f>
-        <v>344</v>
-      </c>
-      <c r="I45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Феклуша")</f>
-        <v>Феклуша</v>
-      </c>
-      <c r="J45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
-        <v>444</v>
-      </c>
-      <c r="K45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"История создания «Кому на Руси жить хорошо»")</f>
-        <v>История создания «Кому на Руси жить хорошо»</v>
-      </c>
-      <c r="L45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),544.0)</f>
-        <v>544</v>
-      </c>
-      <c r="M45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Композиция ""Преступление и наказание""")</f>
-        <v>Композиция "Преступление и наказание"</v>
-      </c>
-      <c r="N45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),644.0)</f>
-        <v>644</v>
-      </c>
-      <c r="O45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Алёнушка»")</f>
-        <v>Бунин И.А. – «Алёнушка»</v>
-      </c>
-      <c r="P45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),744.0)</f>
-        <v>744</v>
-      </c>
-      <c r="Q45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Пороша"": жанр, тема, худ. средства")</f>
-        <v>Есенин С.А. "Пороша": жанр, тема, худ. средства</v>
-      </c>
-      <c r="R45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),844.0)</f>
-        <v>844</v>
-      </c>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы ""Василий Тёркин""")</f>
-        <v>Темы "Василий Тёркин"</v>
-      </c>
-      <c r="V45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1044.0)</f>
-        <v>1044</v>
-      </c>
-      <c r="W45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вознесенский А.А.")</f>
-        <v>Вознесенский А.А.</v>
-      </c>
-      <c r="X45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1144.0)</f>
-        <v>1144</v>
-      </c>
-      <c r="Y45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Т.С. Элиот")</f>
-        <v>Т.С. Элиот</v>
-      </c>
-      <c r="Z45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1244.0)</f>
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Портрет")</f>
-        <v>Портрет</v>
-      </c>
-      <c r="B46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
-        <v>45</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мотив денег  – ""Бедная Лиза""")</f>
-        <v>Мотив денег  – "Бедная Лиза"</v>
-      </c>
-      <c r="D46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
-      </c>
-      <c r="E46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сюжет «Станционный смотритель»")</f>
-        <v>Сюжет «Станционный смотритель»</v>
-      </c>
-      <c r="F46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
-        <v>245</v>
-      </c>
-      <c r="G46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лермонтов М.Ю. — «Герой нашего времени»: особенности произведения")</f>
-        <v>Лермонтов М.Ю. — «Герой нашего времени»: особенности произведения</v>
-      </c>
-      <c r="H46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),345.0)</f>
-        <v>345</v>
-      </c>
-      <c r="I46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван Кудряш")</f>
-        <v>Иван Кудряш</v>
-      </c>
-      <c r="J46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
-        <v>445</v>
-      </c>
-      <c r="K46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Композиция и сюжет «Кому на Руси жить хорошо»")</f>
-        <v>Композиция и сюжет «Кому на Руси жить хорошо»</v>
-      </c>
-      <c r="L46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),545.0)</f>
-        <v>545</v>
-      </c>
-      <c r="M46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сюжет ""Преступление и наказание""")</f>
-        <v>Сюжет "Преступление и наказание"</v>
-      </c>
-      <c r="N46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),645.0)</f>
-        <v>645</v>
-      </c>
-      <c r="O46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Вечер»")</f>
-        <v>Бунин И.А. – «Вечер»</v>
-      </c>
-      <c r="P46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),745.0)</f>
-        <v>745</v>
-      </c>
-      <c r="Q46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Край любимый! Сердцу снятся..."": жанр, тема, худ. средства")</f>
-        <v>Есенин С.А. "Край любимый! Сердцу снятся...": жанр, тема, худ. средства</v>
-      </c>
-      <c r="R46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),845.0)</f>
-        <v>845</v>
-      </c>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идеи ""Василий Тёркин""")</f>
-        <v>Идеи "Василий Тёркин"</v>
-      </c>
-      <c r="V46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1045.0)</f>
-        <v>1045</v>
-      </c>
-      <c r="W46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Высоцкий В.С. ")</f>
-        <v>Высоцкий В.С. </v>
-      </c>
-      <c r="X46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1145.0)</f>
-        <v>1145</v>
-      </c>
-      <c r="Y46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анализ прозаического текста")</f>
-        <v>Анализ прозаического текста</v>
-      </c>
-      <c r="Z46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1245.0)</f>
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пейзаж")</f>
-        <v>Пейзаж</v>
-      </c>
-      <c r="B47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ Лизы")</f>
-        <v>Образ Лизы</v>
-      </c>
-      <c r="D47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
-      </c>
-      <c r="E47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Система образов «Станционный смотритель»")</f>
-        <v>Система образов «Станционный смотритель»</v>
-      </c>
-      <c r="F47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),246.0)</f>
-        <v>246</v>
-      </c>
-      <c r="G47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы «Герой нашего времени»")</f>
-        <v>Темы «Герой нашего времени»</v>
-      </c>
-      <c r="H47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),346.0)</f>
-        <v>346</v>
-      </c>
-      <c r="I47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Островский А.Н. – «Бесприданница»")</f>
-        <v> Островский А.Н. – «Бесприданница»</v>
-      </c>
-      <c r="J47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
-        <v>446</v>
-      </c>
-      <c r="K47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Роль песен в поэме «Кому на Руси жить хорошо»")</f>
-        <v>Роль песен в поэме «Кому на Руси жить хорошо»</v>
-      </c>
-      <c r="L47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),546.0)</f>
-        <v>546</v>
-      </c>
-      <c r="M47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полифонизм Достоевского  ""Преступление и наказание""")</f>
-        <v>Полифонизм Достоевского  "Преступление и наказание"</v>
-      </c>
-      <c r="N47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),646.0)</f>
-        <v>646</v>
-      </c>
-      <c r="O47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Дурман»")</f>
-        <v>Бунин И.А. – «Дурман»</v>
-      </c>
-      <c r="P47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),746.0)</f>
-        <v>746</v>
-      </c>
-      <c r="Q47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Я покинул родимый дом..."": жанр, тема, худ. средства")</f>
-        <v>Есенин С.А. "Я покинул родимый дом...": жанр, тема, худ. средства</v>
-      </c>
-      <c r="R47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),846.0)</f>
-        <v>846</v>
-      </c>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глава ""Переправа"" ""Василий Тёркин""")</f>
-        <v>Глава "Переправа" "Василий Тёркин"</v>
-      </c>
-      <c r="V47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1046.0)</f>
-        <v>1046</v>
-      </c>
-      <c r="W47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гамзатов Р. ")</f>
-        <v>Гамзатов Р. </v>
-      </c>
-      <c r="X47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1146.0)</f>
-        <v>1146</v>
-      </c>
-      <c r="Y47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анализ лирического текста")</f>
-        <v>Анализ лирического текста</v>
-      </c>
-      <c r="Z47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1246.0)</f>
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды пейзажа")</f>
-        <v>Виды пейзажа</v>
-      </c>
-      <c r="B48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
-        <v>47</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ матери Лизы")</f>
-        <v>Образ матери Лизы</v>
-      </c>
-      <c r="D48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
-        <v>147</v>
-      </c>
-      <c r="E48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы «Станционный смотритель»")</f>
-        <v>Темы «Станционный смотритель»</v>
-      </c>
-      <c r="F48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
-        <v>247</v>
-      </c>
-      <c r="G48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идея «Герой нашего времени»")</f>
-        <v>Идея «Герой нашего времени»</v>
-      </c>
-      <c r="H48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),347.0)</f>
-        <v>347</v>
-      </c>
-      <c r="I48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы «Бесприданница»")</f>
-        <v>Темы «Бесприданница»</v>
-      </c>
-      <c r="J48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),447.0)</f>
-        <v>447</v>
-      </c>
-      <c r="K48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Система образов «Кому на Руси жить хорошо»")</f>
-        <v>Система образов «Кому на Руси жить хорошо»</v>
-      </c>
-      <c r="L48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),547.0)</f>
-        <v>547</v>
-      </c>
-      <c r="M48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хронотоп романа  ""Преступление и наказание""")</f>
-        <v>Хронотоп романа  "Преступление и наказание"</v>
-      </c>
-      <c r="N48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),647.0)</f>
-        <v>647</v>
-      </c>
-      <c r="O48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «И цветы, и шмели, и трава, и колосья…»")</f>
-        <v>Бунин И.А. – «И цветы, и шмели, и трава, и колосья…»</v>
-      </c>
-      <c r="P48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),747.0)</f>
-        <v>747</v>
-      </c>
-      <c r="Q48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Не жалею, не зову, не плачу..."": анализ произведения")</f>
-        <v>Есенин С.А. "Не жалею, не зову, не плачу...": анализ произведения</v>
-      </c>
-      <c r="R48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),847.0)</f>
-        <v>847</v>
-      </c>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глава ""Два солдата"" ""Василий Тёркин""")</f>
-        <v>Глава "Два солдата" "Василий Тёркин"</v>
-      </c>
-      <c r="V48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1047.0)</f>
-        <v>1047</v>
-      </c>
-      <c r="W48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Евтушенко Е.А. ")</f>
-        <v>Евтушенко Е.А. </v>
-      </c>
-      <c r="X48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1147.0)</f>
-        <v>1147</v>
-      </c>
-      <c r="Y48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Навык сопоставления двух произведений")</f>
-        <v>Навык сопоставления двух произведений</v>
-      </c>
-      <c r="Z48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1247.0)</f>
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Говорящая фамилия")</f>
-        <v>Говорящая фамилия</v>
-      </c>
-      <c r="B49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ Эраста")</f>
-        <v>Образ Эраста</v>
-      </c>
-      <c r="D49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
-        <v>148</v>
-      </c>
-      <c r="E49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Статья Есаулова И.А.")</f>
-        <v>Статья Есаулова И.А.</v>
-      </c>
-      <c r="F49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
-        <v>248</v>
-      </c>
-      <c r="G49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности композиции «Герой нашего времени»")</f>
-        <v>Особенности композиции «Герой нашего времени»</v>
-      </c>
-      <c r="H49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
-        <v>348</v>
-      </c>
-      <c r="I49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идея «Бесприданница»")</f>
-        <v>Идея «Бесприданница»</v>
-      </c>
-      <c r="J49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
-        <v>448</v>
-      </c>
-      <c r="K49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Яким Нагой")</f>
-        <v>Яким Нагой</v>
-      </c>
-      <c r="L49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),548.0)</f>
-        <v>548</v>
-      </c>
-      <c r="M49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сны Раскольникова")</f>
-        <v>Сны Раскольникова</v>
-      </c>
-      <c r="N49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),648.0)</f>
-        <v>648</v>
-      </c>
-      <c r="O49" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
 Бунин И.А. –  «У зверя
 есть гнездо, у птицы есть нора…»")</f>
@@ -5266,9 +4552,709 @@
 Бунин И.А. –  «У зверя
 есть гнездо, у птицы есть нора…»</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P42" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),748.0)</f>
         <v>748</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Спит ковыль. Равнина дорогая..."": анализ произведения")</f>
+        <v>Есенин С.А. "Спит ковыль. Равнина дорогая...": анализ произведения</v>
+      </c>
+      <c r="R42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),841.0)</f>
+        <v>841</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Твардовский А.Т. ""Памяти матери"": анализ произведения")</f>
+        <v>Твардовский А.Т. "Памяти матери": анализ произведения</v>
+      </c>
+      <c r="V42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1041.0)</f>
+        <v>1041</v>
+      </c>
+      <c r="W42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слуцкий Б.А. ")</f>
+        <v>Слуцкий Б.А. </v>
+      </c>
+      <c r="X42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1154.0)</f>
+        <v>1154</v>
+      </c>
+      <c r="Y42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"А. Рембо")</f>
+        <v>А. Рембо</v>
+      </c>
+      <c r="Z42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1241.0)</f>
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лирический герой")</f>
+        <v>Лирический герой</v>
+      </c>
+      <c r="B43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ рассказчика-повествователя в повести  – ""Бедная Лиза""")</f>
+        <v>Образ рассказчика-повествователя в повести  – "Бедная Лиза"</v>
+      </c>
+      <c r="D43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
+        <v>142</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Динамика «Выстрел»")</f>
+        <v>Динамика «Выстрел»</v>
+      </c>
+      <c r="F43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
+        <v>242</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Конфликт «Мцыри»")</f>
+        <v>Конфликт «Мцыри»</v>
+      </c>
+      <c r="H43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),342.0)</f>
+        <v>342</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Савел Прокофьевич Дикой")</f>
+        <v>Савел Прокофьевич Дикой</v>
+      </c>
+      <c r="J43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
+        <v>442</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идея «Кому на Руси жить хорошо»")</f>
+        <v>Идея «Кому на Руси жить хорошо»</v>
+      </c>
+      <c r="L43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),542.0)</f>
+        <v>542</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теория Раскольникова")</f>
+        <v>Теория Раскольникова</v>
+      </c>
+      <c r="N43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),642.0)</f>
+        <v>642</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Ассаргадон»")</f>
+        <v>Брюсов В.Я. – «Ассаргадон»</v>
+      </c>
+      <c r="P43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),749.0)</f>
+        <v>749</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Шаганэ ты моя, Шаганэ..."": анализ произведения")</f>
+        <v>Есенин С.А. "Шаганэ ты моя, Шаганэ...": анализ произведения</v>
+      </c>
+      <c r="R43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),842.0)</f>
+        <v>842</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Твардовский А.Т. ""Я знаю, никакой моей вины..."": анализ произведения")</f>
+        <v>Твардовский А.Т. "Я знаю, никакой моей вины...": анализ произведения</v>
+      </c>
+      <c r="V43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1042.0)</f>
+        <v>1042</v>
+      </c>
+      <c r="W43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соколов В.Н. ")</f>
+        <v>Соколов В.Н. </v>
+      </c>
+      <c r="X43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1155.0)</f>
+        <v>1155</v>
+      </c>
+      <c r="Y43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Р.М. Рильке")</f>
+        <v>Р.М. Рильке</v>
+      </c>
+      <c r="Z43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1242.0)</f>
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Система персонажей")</f>
+        <v>Система персонажей</v>
+      </c>
+      <c r="B44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тема любви и социального неравенства  – ""Бедная Лиза""")</f>
+        <v>Тема любви и социального неравенства  – "Бедная Лиза"</v>
+      </c>
+      <c r="D44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
+        <v>143</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Критика «Выстрел»")</f>
+        <v>Критика «Выстрел»</v>
+      </c>
+      <c r="F44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),243.0)</f>
+        <v>243</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Природа в поэме «Мцыри»")</f>
+        <v>Природа в поэме «Мцыри»</v>
+      </c>
+      <c r="H44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Борис Григорьевич")</f>
+        <v>Борис Григорьевич</v>
+      </c>
+      <c r="J44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
+        <v>443</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проблематика «Кому на Руси жить хорошо»")</f>
+        <v>Проблематика «Кому на Руси жить хорошо»</v>
+      </c>
+      <c r="L44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),543.0)</f>
+        <v>543</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Истоки преступления Раскольникова")</f>
+        <v>Истоки преступления Раскольникова</v>
+      </c>
+      <c r="N44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),643.0)</f>
+        <v>643</v>
+      </c>
+      <c r="O44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Грядущие гунны»")</f>
+        <v>Брюсов В.Я. – «Грядущие гунны»</v>
+      </c>
+      <c r="P44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Береза"": жанр, тема, худ. средства")</f>
+        <v>Есенин С.А. "Береза": жанр, тема, худ. средства</v>
+      </c>
+      <c r="R44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),843.0)</f>
+        <v>843</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Твардовский А.Т. ""Василий Тёркин"": особенности произведения")</f>
+        <v>Твардовский А.Т. "Василий Тёркин": особенности произведения</v>
+      </c>
+      <c r="V44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1043.0)</f>
+        <v>1043</v>
+      </c>
+      <c r="W44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Солоухин В.А.")</f>
+        <v> Солоухин В.А.</v>
+      </c>
+      <c r="X44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1156.0)</f>
+        <v>1156</v>
+      </c>
+      <c r="Y44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"У. Шекспир*")</f>
+        <v>У. Шекспир*</v>
+      </c>
+      <c r="Z44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1243.0)</f>
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Интерьер")</f>
+        <v>Интерьер</v>
+      </c>
+      <c r="B45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мотив белизны, чистоты и свежести  – ""Бедная Лиза""")</f>
+        <v>Мотив белизны, чистоты и свежести  – "Бедная Лиза"</v>
+      </c>
+      <c r="D45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пушкин А.С. — «Станционный смотритель»: краткие сведения")</f>
+        <v>Пушкин А.С. — «Станционный смотритель»: краткие сведения</v>
+      </c>
+      <c r="F45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),244.0)</f>
+        <v>244</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ Мцыри")</f>
+        <v>Образ Мцыри</v>
+      </c>
+      <c r="H45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),344.0)</f>
+        <v>344</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Феклуша")</f>
+        <v>Феклуша</v>
+      </c>
+      <c r="J45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
+        <v>444</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"История создания «Кому на Руси жить хорошо»")</f>
+        <v>История создания «Кому на Руси жить хорошо»</v>
+      </c>
+      <c r="L45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),544.0)</f>
+        <v>544</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Композиция ""Преступление и наказание""")</f>
+        <v>Композиция "Преступление и наказание"</v>
+      </c>
+      <c r="N45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),644.0)</f>
+        <v>644</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Есть что-то позорное в мощи природы...»")</f>
+        <v>Брюсов В.Я. – «Есть что-то позорное в мощи природы...»</v>
+      </c>
+      <c r="P45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),751.0)</f>
+        <v>751</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Пороша"": жанр, тема, худ. средства")</f>
+        <v>Есенин С.А. "Пороша": жанр, тема, худ. средства</v>
+      </c>
+      <c r="R45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),844.0)</f>
+        <v>844</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы ""Василий Тёркин""")</f>
+        <v>Темы "Василий Тёркин"</v>
+      </c>
+      <c r="V45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1044.0)</f>
+        <v>1044</v>
+      </c>
+      <c r="W45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тарковский А.А. ")</f>
+        <v>Тарковский А.А. </v>
+      </c>
+      <c r="X45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1157.0)</f>
+        <v>1157</v>
+      </c>
+      <c r="Y45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Т.С. Элиот")</f>
+        <v>Т.С. Элиот</v>
+      </c>
+      <c r="Z45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1244.0)</f>
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Портрет")</f>
+        <v>Портрет</v>
+      </c>
+      <c r="B46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мотив денег  – ""Бедная Лиза""")</f>
+        <v>Мотив денег  – "Бедная Лиза"</v>
+      </c>
+      <c r="D46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сюжет «Станционный смотритель»")</f>
+        <v>Сюжет «Станционный смотритель»</v>
+      </c>
+      <c r="F46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
+        <v>245</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лермонтов М.Ю. — «Герой нашего времени»: особенности произведения")</f>
+        <v>Лермонтов М.Ю. — «Герой нашего времени»: особенности произведения</v>
+      </c>
+      <c r="H46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),345.0)</f>
+        <v>345</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван Кудряш")</f>
+        <v>Иван Кудряш</v>
+      </c>
+      <c r="J46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
+        <v>445</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Композиция и сюжет «Кому на Руси жить хорошо»")</f>
+        <v>Композиция и сюжет «Кому на Руси жить хорошо»</v>
+      </c>
+      <c r="L46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),545.0)</f>
+        <v>545</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сюжет ""Преступление и наказание""")</f>
+        <v>Сюжет "Преступление и наказание"</v>
+      </c>
+      <c r="N46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),645.0)</f>
+        <v>645</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Неколебимой истине...» ")</f>
+        <v>Брюсов В.Я. – «Неколебимой истине...» </v>
+      </c>
+      <c r="P46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),752.0)</f>
+        <v>752</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Край любимый! Сердцу снятся..."": жанр, тема, худ. средства")</f>
+        <v>Есенин С.А. "Край любимый! Сердцу снятся...": жанр, тема, худ. средства</v>
+      </c>
+      <c r="R46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),845.0)</f>
+        <v>845</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идеи ""Василий Тёркин""")</f>
+        <v>Идеи "Василий Тёркин"</v>
+      </c>
+      <c r="V46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1045.0)</f>
+        <v>1045</v>
+      </c>
+      <c r="W46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Драматургия второй половины ХХ века")</f>
+        <v>Драматургия второй половины ХХ века</v>
+      </c>
+      <c r="X46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1158.0)</f>
+        <v>1158</v>
+      </c>
+      <c r="Y46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анализ прозаического текста")</f>
+        <v>Анализ прозаического текста</v>
+      </c>
+      <c r="Z46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1245.0)</f>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пейзаж")</f>
+        <v>Пейзаж</v>
+      </c>
+      <c r="B47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ Лизы")</f>
+        <v>Образ Лизы</v>
+      </c>
+      <c r="D47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Система образов «Станционный смотритель»")</f>
+        <v>Система образов «Станционный смотритель»</v>
+      </c>
+      <c r="F47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),246.0)</f>
+        <v>246</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы «Герой нашего времени»")</f>
+        <v>Темы «Герой нашего времени»</v>
+      </c>
+      <c r="H47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),346.0)</f>
+        <v>346</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Островский А.Н. – «Бесприданница»")</f>
+        <v> Островский А.Н. – «Бесприданница»</v>
+      </c>
+      <c r="J47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
+        <v>446</v>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Роль песен в поэме «Кому на Руси жить хорошо»")</f>
+        <v>Роль песен в поэме «Кому на Руси жить хорошо»</v>
+      </c>
+      <c r="L47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),546.0)</f>
+        <v>546</v>
+      </c>
+      <c r="M47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полифонизм Достоевского  ""Преступление и наказание""")</f>
+        <v>Полифонизм Достоевского  "Преступление и наказание"</v>
+      </c>
+      <c r="N47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),646.0)</f>
+        <v>646</v>
+      </c>
+      <c r="O47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Каменщик»")</f>
+        <v>Брюсов В.Я. – «Каменщик»</v>
+      </c>
+      <c r="P47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),753.0)</f>
+        <v>753</v>
+      </c>
+      <c r="Q47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Я покинул родимый дом..."": жанр, тема, худ. средства")</f>
+        <v>Есенин С.А. "Я покинул родимый дом...": жанр, тема, худ. средства</v>
+      </c>
+      <c r="R47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),846.0)</f>
+        <v>846</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глава ""Переправа"" ""Василий Тёркин""")</f>
+        <v>Глава "Переправа" "Василий Тёркин"</v>
+      </c>
+      <c r="V47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1046.0)</f>
+        <v>1046</v>
+      </c>
+      <c r="W47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Арбузов А.Н. ")</f>
+        <v>Арбузов А.Н. </v>
+      </c>
+      <c r="X47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1159.0)</f>
+        <v>1159</v>
+      </c>
+      <c r="Y47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анализ лирического текста")</f>
+        <v>Анализ лирического текста</v>
+      </c>
+      <c r="Z47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1246.0)</f>
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды пейзажа")</f>
+        <v>Виды пейзажа</v>
+      </c>
+      <c r="B48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ матери Лизы")</f>
+        <v>Образ матери Лизы</v>
+      </c>
+      <c r="D48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
+        <v>147</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы «Станционный смотритель»")</f>
+        <v>Темы «Станционный смотритель»</v>
+      </c>
+      <c r="F48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
+        <v>247</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идея «Герой нашего времени»")</f>
+        <v>Идея «Герой нашего времени»</v>
+      </c>
+      <c r="H48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),347.0)</f>
+        <v>347</v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы «Бесприданница»")</f>
+        <v>Темы «Бесприданница»</v>
+      </c>
+      <c r="J48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),447.0)</f>
+        <v>447</v>
+      </c>
+      <c r="K48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Система образов «Кому на Руси жить хорошо»")</f>
+        <v>Система образов «Кому на Руси жить хорошо»</v>
+      </c>
+      <c r="L48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),547.0)</f>
+        <v>547</v>
+      </c>
+      <c r="M48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хронотоп романа  ""Преступление и наказание""")</f>
+        <v>Хронотоп романа  "Преступление и наказание"</v>
+      </c>
+      <c r="N48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),647.0)</f>
+        <v>647</v>
+      </c>
+      <c r="O48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. –  «Творчество»")</f>
+        <v>Брюсов В.Я. –  «Творчество»</v>
+      </c>
+      <c r="P48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),754.0)</f>
+        <v>754</v>
+      </c>
+      <c r="Q48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Не жалею, не зову, не плачу..."": анализ произведения")</f>
+        <v>Есенин С.А. "Не жалею, не зову, не плачу...": анализ произведения</v>
+      </c>
+      <c r="R48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),847.0)</f>
+        <v>847</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глава ""Два солдата"" ""Василий Тёркин""")</f>
+        <v>Глава "Два солдата" "Василий Тёркин"</v>
+      </c>
+      <c r="V48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1047.0)</f>
+        <v>1047</v>
+      </c>
+      <c r="W48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вампилов А.В. ")</f>
+        <v>Вампилов А.В. </v>
+      </c>
+      <c r="X48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1160.0)</f>
+        <v>1160</v>
+      </c>
+      <c r="Y48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Навык сопоставления двух произведений")</f>
+        <v>Навык сопоставления двух произведений</v>
+      </c>
+      <c r="Z48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1247.0)</f>
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Говорящая фамилия")</f>
+        <v>Говорящая фамилия</v>
+      </c>
+      <c r="B49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ Эраста")</f>
+        <v>Образ Эраста</v>
+      </c>
+      <c r="D49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Статья Есаулова И.А.")</f>
+        <v>Статья Есаулова И.А.</v>
+      </c>
+      <c r="F49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
+        <v>248</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности композиции «Герой нашего времени»")</f>
+        <v>Особенности композиции «Герой нашего времени»</v>
+      </c>
+      <c r="H49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
+        <v>348</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идея «Бесприданница»")</f>
+        <v>Идея «Бесприданница»</v>
+      </c>
+      <c r="J49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
+        <v>448</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Яким Нагой")</f>
+        <v>Яким Нагой</v>
+      </c>
+      <c r="L49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),548.0)</f>
+        <v>548</v>
+      </c>
+      <c r="M49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сны Раскольникова")</f>
+        <v>Сны Раскольникова</v>
+      </c>
+      <c r="N49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),648.0)</f>
+        <v>648</v>
+      </c>
+      <c r="O49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Родной язык»")</f>
+        <v>Брюсов В.Я. – «Родной язык»</v>
+      </c>
+      <c r="P49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),755.0)</f>
+        <v>755</v>
       </c>
       <c r="Q49" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Русь Советская"": анализ произведения")</f>
@@ -5289,12 +5275,12 @@
         <v>1048</v>
       </c>
       <c r="W49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Заболоцкий Н.А. ")</f>
-        <v>Заболоцкий Н.А. </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Володин А.М. ")</f>
+        <v>Володин А.М. </v>
       </c>
       <c r="X49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1148.0)</f>
-        <v>1148</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1161.0)</f>
+        <v>1161</v>
       </c>
       <c r="Y49" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Четкое и последовательное изложение мыслей")</f>
@@ -5363,12 +5349,12 @@
         <v>649</v>
       </c>
       <c r="O50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Ассаргадон»")</f>
-        <v>Брюсов В.Я. – «Ассаргадон»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Юному поэту»")</f>
+        <v>Брюсов В.Я. – «Юному поэту»</v>
       </c>
       <c r="P50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),749.0)</f>
-        <v>749</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),756.0)</f>
+        <v>756</v>
       </c>
       <c r="Q50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""О красном вечере задумалась дорога..."": анализ произведения")</f>
@@ -5389,12 +5375,12 @@
         <v>1049</v>
       </c>
       <c r="W50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кузнецов Ю.П.")</f>
-        <v>Кузнецов Ю.П.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Розов В.С.")</f>
+        <v>Розов В.С.</v>
       </c>
       <c r="X50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1149.0)</f>
-        <v>1149</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1162.0)</f>
+        <v>1162</v>
       </c>
       <c r="Y50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Навык аргументации")</f>
@@ -5463,12 +5449,14 @@
         <v>650</v>
       </c>
       <c r="O51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Грядущие гунны»")</f>
-        <v>Брюсов В.Я. – «Грядущие гунны»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
+Брюсов В.Я. – «Я»")</f>
+        <v>
+Брюсов В.Я. – «Я»</v>
       </c>
       <c r="P51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),757.0)</f>
+        <v>757</v>
       </c>
       <c r="Q51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Запели тесаные дроги..."": анализ произведения")</f>
@@ -5489,12 +5477,12 @@
         <v>1050</v>
       </c>
       <c r="W51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мартынов Л.Н. ")</f>
-        <v>Мартынов Л.Н. </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рощин М.М. ")</f>
+        <v>Рощин М.М. </v>
       </c>
       <c r="X51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
-        <v>1150</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1163.0)</f>
+        <v>1163</v>
       </c>
       <c r="Y51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа с цитатами и их уместное привлечение")</f>
@@ -5563,12 +5551,12 @@
         <v>651</v>
       </c>
       <c r="O52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Есть что-то позорное в мощи природы...»")</f>
-        <v>Брюсов В.Я. – «Есть что-то позорное в мощи природы...»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Волошин М.А.")</f>
+        <v>Волошин М.А.</v>
       </c>
       <c r="P52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),751.0)</f>
-        <v>751</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),758.0)</f>
+        <v>758</v>
       </c>
       <c r="Q52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Русь"": анализ произведения")</f>
@@ -5589,12 +5577,12 @@
         <v>1051</v>
       </c>
       <c r="W52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окуджава Б.Ш. ")</f>
-        <v>Окуджава Б.Ш. </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Б.Л. Васильев — «А зори здесь тихие…»")</f>
+        <v>Б.Л. Васильев — «А зори здесь тихие…»</v>
       </c>
       <c r="X52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1151.0)</f>
-        <v>1151</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1164.0)</f>
+        <v>1164</v>
       </c>
       <c r="Y52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Грамотная речь")</f>
@@ -5663,12 +5651,12 @@
         <v>652</v>
       </c>
       <c r="O53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Неколебимой истине...» ")</f>
-        <v>Брюсов В.Я. – «Неколебимой истине...» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Клюев Н.А.")</f>
+        <v>Клюев Н.А.</v>
       </c>
       <c r="P53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),752.0)</f>
-        <v>752</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),773.0)</f>
+        <v>773</v>
       </c>
       <c r="Q53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Пушкину"": анализ произведения")</f>
@@ -5689,12 +5677,12 @@
         <v>1052</v>
       </c>
       <c r="W53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рубцов Н.М. ")</f>
-        <v>Рубцов Н.М. </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"В.В. Быков — «Сотников»")</f>
+        <v>В.В. Быков — «Сотников»</v>
       </c>
       <c r="X53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1152.0)</f>
-        <v>1152</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1165.0)</f>
+        <v>1165</v>
       </c>
       <c r="Y53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владение теоретико-литературными понятиями")</f>
@@ -5763,12 +5751,12 @@
         <v>653</v>
       </c>
       <c r="O54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Каменщик»")</f>
-        <v>Брюсов В.Я. – «Каменщик»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Северянин И.")</f>
+        <v>Северянин И.</v>
       </c>
       <c r="P54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),753.0)</f>
-        <v>753</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),774.0)</f>
+        <v>774</v>
       </c>
       <c r="Q54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Я иду долиной. На затылке кепи..."": анализ произведения")</f>
@@ -5789,12 +5777,12 @@
         <v>1053</v>
       </c>
       <c r="W54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Самойлов Д.С. ")</f>
-        <v>Самойлов Д.С. </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А.")</f>
+        <v>Бродский И.А.</v>
       </c>
       <c r="X54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1153.0)</f>
-        <v>1153</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1166.0)</f>
+        <v>1166</v>
       </c>
       <c r="Y54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа с терминами и их уместное привлечение для аргументации")</f>
@@ -5863,12 +5851,12 @@
         <v>654</v>
       </c>
       <c r="O55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. –  «Творчество»")</f>
-        <v>Брюсов В.Я. –  «Творчество»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сологуб Ф.К.")</f>
+        <v>Сологуб Ф.К.</v>
       </c>
       <c r="P55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),754.0)</f>
-        <v>754</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),775.0)</f>
+        <v>775</v>
       </c>
       <c r="Q55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Низкий дом с голубыми ставнями..."": анализ произведения")</f>
@@ -5888,14 +5876,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1054.0)</f>
         <v>1054</v>
       </c>
-      <c r="W55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слуцкий Б.А. ")</f>
-        <v>Слуцкий Б.А. </v>
-      </c>
-      <c r="X55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1154.0)</f>
-        <v>1154</v>
-      </c>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Раскрывать конкретно-историческое и общечеловеческое содержание изученных литературных произведений")</f>
         <v>Раскрывать конкретно-историческое и общечеловеческое содержание изученных литературных произведений</v>
@@ -5963,12 +5945,12 @@
         <v>655</v>
       </c>
       <c r="O56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Родной язык»")</f>
-        <v>Брюсов В.Я. – «Родной язык»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ходасевич В.Ф.")</f>
+        <v>Ходасевич В.Ф.</v>
       </c>
       <c r="P56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),755.0)</f>
-        <v>755</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),786.0)</f>
+        <v>786</v>
       </c>
       <c r="Q56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лирика Цветаевой М.И.")</f>
@@ -5988,14 +5970,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1055.0)</f>
         <v>1055</v>
       </c>
-      <c r="W56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соколов В.Н. ")</f>
-        <v>Соколов В.Н. </v>
-      </c>
-      <c r="X56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1155.0)</f>
-        <v>1155</v>
-      </c>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связывать литературную классику со временем написания, с современностью и традицией")</f>
         <v>Связывать литературную классику со временем написания, с современностью и традицией</v>
@@ -6063,12 +6039,12 @@
         <v>656</v>
       </c>
       <c r="O57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Юному поэту»")</f>
-        <v>Брюсов В.Я. – «Юному поэту»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вишневый сад”: особенности конфликта")</f>
+        <v>Вишневый сад”: особенности конфликта</v>
       </c>
       <c r="P57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),756.0)</f>
-        <v>756</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),787.0)</f>
+        <v>787</v>
       </c>
       <c r="Q57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Биография Цветаевой М.И.")</f>
@@ -6088,14 +6064,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1056.0)</f>
         <v>1056</v>
       </c>
-      <c r="W57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Солоухин В.А.")</f>
-        <v> Солоухин В.А.</v>
-      </c>
-      <c r="X57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1156.0)</f>
-        <v>1156</v>
-      </c>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
       <c r="Y57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выявлять «сквозные темы» и ключевые проблемы русской литературы")</f>
         <v>Выявлять «сквозные темы» и ключевые проблемы русской литературы</v>
@@ -6163,14 +6133,12 @@
         <v>657</v>
       </c>
       <c r="O58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-Брюсов В.Я. – «Я»")</f>
-        <v>
-Брюсов В.Я. – «Я»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
+        <v>Бальмонт К.Д.</v>
       </c>
       <c r="P58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),757.0)</f>
-        <v>757</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),788.0)</f>
+        <v>788</v>
       </c>
       <c r="Q58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветаева М.И. – «Моим стихам, написанным так рано…»")</f>
@@ -6190,14 +6158,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1057.0)</f>
         <v>1057</v>
       </c>
-      <c r="W58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тарковский А.А. ")</f>
-        <v>Тарковский А.А. </v>
-      </c>
-      <c r="X58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1157.0)</f>
-        <v>1157</v>
-      </c>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соотносить изучаемое произведение с литературным направлением эпохи")</f>
         <v>Соотносить изучаемое произведение с литературным направлением эпохи</v>
@@ -6265,12 +6227,12 @@
         <v>658</v>
       </c>
       <c r="O59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Волошин М.А.")</f>
-        <v>Волошин М.А.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я.")</f>
+        <v>Брюсов В.Я.</v>
       </c>
       <c r="P59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),758.0)</f>
-        <v>758</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),789.0)</f>
+        <v>789</v>
       </c>
       <c r="Q59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветаева М.И. – «Имя твое - птица в руке... («Стихи к Блоку»)»")</f>
@@ -6290,14 +6252,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1058.0)</f>
         <v>1058</v>
       </c>
-      <c r="W59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Драматургия второй половины ХХ века")</f>
-        <v>Драматургия второй половины ХХ века</v>
-      </c>
-      <c r="X59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1158.0)</f>
-        <v>1158</v>
-      </c>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выделять черты литературных направлений и течений при анализе произведения")</f>
         <v>Выделять черты литературных направлений и течений при анализе произведения</v>
@@ -6365,12 +6321,12 @@
         <v>659</v>
       </c>
       <c r="O60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. ")</f>
-        <v>Гумилёв Н.С. </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),759.0)</f>
-        <v>759</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),790.0)</f>
+        <v>790</v>
       </c>
       <c r="Q60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветаева М.И. – «Кто создан из камня, кто создан из глины…»")</f>
@@ -6390,14 +6346,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1059.0)</f>
         <v>1059</v>
       </c>
-      <c r="W60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Арбузов А.Н. ")</f>
-        <v>Арбузов А.Н. </v>
-      </c>
-      <c r="X60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1159.0)</f>
-        <v>1159</v>
-      </c>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Писать сочинения на литературные темы")</f>
         <v>Писать сочинения на литературные темы</v>
@@ -6465,12 +6415,12 @@
         <v>660</v>
       </c>
       <c r="O61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
       </c>
       <c r="P61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),760.0)</f>
-        <v>760</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),791.0)</f>
+        <v>791</v>
       </c>
       <c r="Q61" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветаева М.И. – «Тоска по родине! Давно…»")</f>
@@ -6490,14 +6440,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1060.0)</f>
         <v>1060</v>
       </c>
-      <c r="W61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вампилов А.В. ")</f>
-        <v>Вампилов А.В. </v>
-      </c>
-      <c r="X61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1160.0)</f>
-        <v>1160</v>
-      </c>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способность соблюдать нормы построения текста (логичность, последовательность, связность, соответствие теме и др.)")</f>
         <v>Способность соблюдать нормы построения текста (логичность, последовательность, связность, соответствие теме и др.)</v>
@@ -6564,14 +6508,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),661.0)</f>
         <v>661</v>
       </c>
-      <c r="O62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
-      </c>
-      <c r="P62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),761.0)</f>
-        <v>761</v>
-      </c>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
       <c r="Q62" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветаева М.И. – «Книги в красном переплете»")</f>
         <v>Цветаева М.И. – «Книги в красном переплете»</v>
@@ -6590,14 +6528,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1061.0)</f>
         <v>1061</v>
       </c>
-      <c r="W62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Володин А.М. ")</f>
-        <v>Володин А.М. </v>
-      </c>
-      <c r="X62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1161.0)</f>
-        <v>1161</v>
-      </c>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способность адекватно выражать свое отношение к фактам и явлениям окружающей действительности")</f>
         <v>Способность адекватно выражать свое отношение к фактам и явлениям окружающей действительности</v>
@@ -6664,14 +6596,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),662.0)</f>
         <v>662</v>
       </c>
-      <c r="O63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
-      </c>
-      <c r="P63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),762.0)</f>
-        <v>762</v>
-      </c>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
       <c r="Q63" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветаева М.И. – «Бабушке»")</f>
         <v>Цветаева М.И. – «Бабушке»</v>
@@ -6690,14 +6616,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1062.0)</f>
         <v>1062</v>
       </c>
-      <c r="W63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Розов В.С.")</f>
-        <v>Розов В.С.</v>
-      </c>
-      <c r="X63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1162.0)</f>
-        <v>1162</v>
-      </c>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Комментирование авторских высказываний на различные темы ")</f>
         <v>Комментирование авторских высказываний на различные темы </v>
@@ -6764,14 +6684,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),663.0)</f>
         <v>663</v>
       </c>
-      <c r="O64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. ")</f>
-        <v>Гумилёв Н.С. </v>
-      </c>
-      <c r="P64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),763.0)</f>
-        <v>763</v>
-      </c>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
       <c r="Q64" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветаева М.И. – «Семь холмов - как семь колоколов!..»")</f>
         <v>Цветаева М.И. – «Семь холмов - как семь колоколов!..»</v>
@@ -6790,14 +6704,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1063.0)</f>
         <v>1063</v>
       </c>
-      <c r="W64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рощин М.М. ")</f>
-        <v>Рощин М.М. </v>
-      </c>
-      <c r="X64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1163.0)</f>
-        <v>1163</v>
-      </c>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проводить самостоятельный поиск текстовой и нетекстовой информации")</f>
         <v>Проводить самостоятельный поиск текстовой и нетекстовой информации</v>
@@ -6864,14 +6772,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),664.0)</f>
         <v>664</v>
       </c>
-      <c r="O65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С. ")</f>
-        <v>Гумилёв Н.С. </v>
-      </c>
-      <c r="P65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),764.0)</f>
-        <v>764</v>
-      </c>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
       <c r="Q65" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Биография Мандельштама О.Э.")</f>
         <v>Биография Мандельштама О.Э.</v>
@@ -6890,14 +6792,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1064.0)</f>
         <v>1064</v>
       </c>
-      <c r="W65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Б.Л. Васильев — «А зори здесь тихие…»")</f>
-        <v>Б.Л. Васильев — «А зори здесь тихие…»</v>
-      </c>
-      <c r="X65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1164.0)</f>
-        <v>1164</v>
-      </c>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбирать и анализировать полученную информацию")</f>
         <v>Отбирать и анализировать полученную информацию</v>
@@ -6964,14 +6860,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),665.0)</f>
         <v>665</v>
       </c>
-      <c r="O66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
-      </c>
-      <c r="P66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),765.0)</f>
-        <v>765</v>
-      </c>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
       <c r="Q66" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мандельштам О.Э. ""Notre Dame"": анализ произведения")</f>
         <v>Мандельштам О.Э. "Notre Dame": анализ произведения</v>
@@ -6990,14 +6880,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1065.0)</f>
         <v>1065</v>
       </c>
-      <c r="W66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"В.В. Быков — «Сотников»")</f>
-        <v>В.В. Быков — «Сотников»</v>
-      </c>
-      <c r="X66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1165.0)</f>
-        <v>1165</v>
-      </c>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сохранять стилевое единство при создании текста заданного функционального стиля")</f>
         <v>Сохранять стилевое единство при создании текста заданного функционального стиля</v>
@@ -7064,14 +6948,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),666.0)</f>
         <v>666</v>
       </c>
-      <c r="O67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
-      </c>
-      <c r="P67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),766.0)</f>
-        <v>766</v>
-      </c>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
       <c r="Q67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мандельштам О.Э. ""Бессонница. Гомер. Тугие паруса..."": анализ произведения")</f>
         <v>Мандельштам О.Э. "Бессонница. Гомер. Тугие паруса...": анализ произведения</v>
@@ -7090,14 +6968,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1066.0)</f>
         <v>1066</v>
       </c>
-      <c r="W67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бродский И.А.")</f>
-        <v>Бродский И.А.</v>
-      </c>
-      <c r="X67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1166.0)</f>
-        <v>1166</v>
-      </c>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
@@ -7158,14 +7030,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),667.0)</f>
         <v>667</v>
       </c>
-      <c r="O68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
-      </c>
-      <c r="P68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),767.0)</f>
-        <v>767</v>
-      </c>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
       <c r="Q68" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мандельштам О.Э. ""За гремучую доблесть грядущих веков..."": анализ произведения")</f>
         <v>Мандельштам О.Э. "За гремучую доблесть грядущих веков...": анализ произведения</v>
@@ -7246,14 +7112,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),668.0)</f>
         <v>668</v>
       </c>
-      <c r="O69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
-      </c>
-      <c r="P69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),768.0)</f>
-        <v>768</v>
-      </c>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
       <c r="Q69" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мандельштам О.Э. ""Ленинград"": анализ произведения")</f>
         <v>Мандельштам О.Э. "Ленинград": анализ произведения</v>
@@ -7334,14 +7194,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),669.0)</f>
         <v>669</v>
       </c>
-      <c r="O70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
-      </c>
-      <c r="P70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),769.0)</f>
-        <v>769</v>
-      </c>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
       <c r="Q70" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Реквием"": особенности произведения")</f>
         <v>Ахматова А.А. "Реквием": особенности произведения</v>
@@ -7422,14 +7276,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),670.0)</f>
         <v>670</v>
       </c>
-      <c r="O71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
-      </c>
-      <c r="P71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),770.0)</f>
-        <v>770</v>
-      </c>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
       <c r="Q71" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Реквием: темы, идеи")</f>
         <v>Реквием: темы, идеи</v>
@@ -7510,14 +7358,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),671.0)</f>
         <v>671</v>
       </c>
-      <c r="O72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
-      </c>
-      <c r="P72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),771.0)</f>
-        <v>771</v>
-      </c>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
       <c r="Q72" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Реквием: история создания")</f>
         <v>Реквием: история создания</v>
@@ -7598,14 +7440,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),672.0)</f>
         <v>672</v>
       </c>
-      <c r="O73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
-      </c>
-      <c r="P73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),772.0)</f>
-        <v>772</v>
-      </c>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
       <c r="Q73" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Реквием: композиция и сюжет")</f>
         <v>Реквием: композиция и сюжет</v>
@@ -7686,14 +7522,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),673.0)</f>
         <v>673</v>
       </c>
-      <c r="O74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Клюев Н.А.")</f>
-        <v>Клюев Н.А.</v>
-      </c>
-      <c r="P74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),773.0)</f>
-        <v>773</v>
-      </c>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
       <c r="Q74" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Реквием: образ лирической героини")</f>
         <v>Реквием: образ лирической героини</v>
@@ -7774,14 +7604,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),674.0)</f>
         <v>674</v>
       </c>
-      <c r="O75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Северянин И.")</f>
-        <v>Северянин И.</v>
-      </c>
-      <c r="P75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),774.0)</f>
-        <v>774</v>
-      </c>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
       <c r="Q75" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Песня последней встречи"": анализ произведения")</f>
         <v>Ахматова А.А. "Песня последней встречи": анализ произведения</v>
@@ -7862,14 +7686,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),675.0)</f>
         <v>675</v>
       </c>
-      <c r="O76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сологуб Ф.К.")</f>
-        <v>Сологуб Ф.К.</v>
-      </c>
-      <c r="P76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),775.0)</f>
-        <v>775</v>
-      </c>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
       <c r="Q76" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Сжала руки под темной вуалью..."": анализ произведения")</f>
         <v>Ахматова А.А. "Сжала руки под темной вуалью...": анализ произведения</v>
@@ -7950,14 +7768,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),676.0)</f>
         <v>676</v>
       </c>
-      <c r="O77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
-        <v>Хлебников В.В.</v>
-      </c>
-      <c r="P77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),776.0)</f>
-        <v>776</v>
-      </c>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
       <c r="Q77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Мне ни к чему одические рати..."": анализ произведения")</f>
         <v>Ахматова А.А. "Мне ни к чему одические рати...": анализ произведения</v>
@@ -8038,14 +7850,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),677.0)</f>
         <v>677</v>
       </c>
-      <c r="O78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
-        <v>Хлебников В.В.</v>
-      </c>
-      <c r="P78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),777.0)</f>
-        <v>777</v>
-      </c>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
       <c r="Q78" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Мне голос был. Он звал утешно..."": анализ произведения")</f>
         <v>Ахматова А.А. "Мне голос был. Он звал утешно...": анализ произведения</v>
@@ -8126,14 +7932,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),678.0)</f>
         <v>678</v>
       </c>
-      <c r="O79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
-        <v>Хлебников В.В.</v>
-      </c>
-      <c r="P79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),778.0)</f>
-        <v>778</v>
-      </c>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
       <c r="Q79" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Родная земля"": анализ произведения")</f>
         <v>Ахматова А.А. "Родная земля": анализ произведения</v>
@@ -8214,14 +8014,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),679.0)</f>
         <v>679</v>
       </c>
-      <c r="O80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
-        <v>Хлебников В.В.</v>
-      </c>
-      <c r="P80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),779.0)</f>
-        <v>779</v>
-      </c>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
       <c r="Q80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Заплаканная осень, как вдова"": анализ произведения")</f>
         <v>Ахматова А.А. "Заплаканная осень, как вдова": анализ произведения</v>
@@ -8302,14 +8096,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),680.0)</f>
         <v>680</v>
       </c>
-      <c r="O81" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В. ")</f>
-        <v>Хлебников В.В. </v>
-      </c>
-      <c r="P81" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),780.0)</f>
-        <v>780</v>
-      </c>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
       <c r="Q81" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Приморский сонет"": анализ произведения")</f>
         <v>Ахматова А.А. "Приморский сонет": анализ произведения</v>
@@ -8390,14 +8178,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),681.0)</f>
         <v>681</v>
       </c>
-      <c r="O82" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
-        <v>Хлебников В.В.</v>
-      </c>
-      <c r="P82" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),781.0)</f>
-        <v>781</v>
-      </c>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
       <c r="Q82" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Перед весной бывают дни такие..."": анализ произведения")</f>
         <v>Ахматова А.А. "Перед весной бывают дни такие...": анализ произведения</v>
@@ -8478,14 +8260,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),682.0)</f>
         <v>682</v>
       </c>
-      <c r="O83" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
-        <v>Хлебников В.В.</v>
-      </c>
-      <c r="P83" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),782.0)</f>
-        <v>782</v>
-      </c>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
       <c r="Q83" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Не с теми я, кто бросил землю..."": анализ произведения")</f>
         <v>Ахматова А.А. "Не с теми я, кто бросил землю...": анализ произведения</v>
@@ -8566,14 +8342,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),683.0)</f>
         <v>683</v>
       </c>
-      <c r="O84" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
-        <v>Хлебников В.В.</v>
-      </c>
-      <c r="P84" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),783.0)</f>
-        <v>783</v>
-      </c>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
       <c r="Q84" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Стихи о Петербурге"": анализ произведения")</f>
         <v>Ахматова А.А. "Стихи о Петербурге": анализ произведения</v>
@@ -8654,14 +8424,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),684.0)</f>
         <v>684</v>
       </c>
-      <c r="O85" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
-        <v>Хлебников В.В.</v>
-      </c>
-      <c r="P85" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),784.0)</f>
-        <v>784</v>
-      </c>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
       <c r="Q85" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ахматова А.А. ""Мужество"": анализ произведения")</f>
         <v>Ахматова А.А. "Мужество": анализ произведения</v>
@@ -8742,14 +8506,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),685.0)</f>
         <v>685</v>
       </c>
-      <c r="O86" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
-        <v>Хлебников В.В.</v>
-      </c>
-      <c r="P86" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),785.0)</f>
-        <v>785</v>
-      </c>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
       <c r="Q86" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"В.В. Маяковского «Необычайное приключение, бывшее с Владимиром Маяковским летом на даче»")</f>
         <v>В.В. Маяковского «Необычайное приключение, бывшее с Владимиром Маяковским летом на даче»</v>
@@ -8824,14 +8582,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),686.0)</f>
         <v>686</v>
       </c>
-      <c r="O87" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ходасевич В.Ф.")</f>
-        <v>Ходасевич В.Ф.</v>
-      </c>
-      <c r="P87" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),786.0)</f>
-        <v>786</v>
-      </c>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
       <c r="Q87" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Незнакомка»: анализ произведения")</f>
         <v>«Незнакомка»: анализ произведения</v>
@@ -8906,14 +8658,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),687.0)</f>
         <v>687</v>
       </c>
-      <c r="O88" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вишневый сад”: особенности конфликта")</f>
-        <v>Вишневый сад”: особенности конфликта</v>
-      </c>
-      <c r="P88" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),787.0)</f>
-        <v>787</v>
-      </c>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
       <c r="Q88" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"А.А. Блок «Россия»: анализ произведения")</f>
         <v>А.А. Блок «Россия»: анализ произведения</v>
@@ -8988,14 +8734,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),688.0)</f>
         <v>688</v>
       </c>
-      <c r="O89" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
-        <v>Бальмонт К.Д.</v>
-      </c>
-      <c r="P89" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),788.0)</f>
-        <v>788</v>
-      </c>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
       <c r="Q89" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Ночь, улица, фонарь, аптека…»: анализ произведения")</f>
         <v>«Ночь, улица, фонарь, аптека…»: анализ произведения</v>
@@ -9070,14 +8810,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),689.0)</f>
         <v>689</v>
       </c>
-      <c r="O90" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я.")</f>
-        <v>Брюсов В.Я.</v>
-      </c>
-      <c r="P90" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),789.0)</f>
-        <v>789</v>
-      </c>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
       <c r="Q90" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«В ресторане»: анализ произведения")</f>
         <v>«В ресторане»: анализ произведения</v>
@@ -9152,14 +8886,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),690.0)</f>
         <v>690</v>
       </c>
-      <c r="O91" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
-      </c>
-      <c r="P91" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),790.0)</f>
-        <v>790</v>
-      </c>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
       <c r="Q91" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"В.В. Маяковский «Дешевая распродажа»")</f>
         <v>В.В. Маяковский «Дешевая распродажа»</v>
@@ -9234,14 +8962,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),691.0)</f>
         <v>691</v>
       </c>
-      <c r="O92" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
-        <v>Хлебников В.В.</v>
-      </c>
-      <c r="P92" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),791.0)</f>
-        <v>791</v>
-      </c>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
       <c r="Q92" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"В.В. Маяковский  «Письмо Татьяне Яковлевой»")</f>
         <v>В.В. Маяковский  «Письмо Татьяне Яковлевой»</v>
